--- a/IS_456_COLUMN/IS456_Column_Specifications__0823.xlsx
+++ b/IS_456_COLUMN/IS456_Column_Specifications__0823.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -1028,10 +1028,10 @@
     <t>[IS456:2000 Annex F]</t>
   </si>
   <si>
-    <t>Load Combiniationc hanges</t>
+    <t>`</t>
   </si>
   <si>
-    <t>`</t>
+    <t>Load Combiniation changes</t>
   </si>
 </sst>
 </file>
@@ -2170,28 +2170,28 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2200,55 +2200,10 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2278,20 +2233,50 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2311,10 +2296,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2343,18 +2355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7163,15 +7163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>108400</xdr:colOff>
+      <xdr:colOff>47787</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:rowOff>33400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
+      <xdr:colOff>592530</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>153213</xdr:rowOff>
+      <xdr:rowOff>118576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7182,8 +7182,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11674471" y="1483180"/>
-          <a:ext cx="544743" cy="969640"/>
+          <a:off x="11676946" y="1488127"/>
+          <a:ext cx="544743" cy="994381"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9191,15 +9191,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
+      <xdr:colOff>357188</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:rowOff>128804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
+      <xdr:colOff>297656</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:rowOff>104991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9219,8 +9219,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10120313" y="2476500"/>
-          <a:ext cx="3393281" cy="3012281"/>
+          <a:off x="9934143" y="2492736"/>
+          <a:ext cx="3360808" cy="3067482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9236,15 +9236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:colOff>374815</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>153213</xdr:rowOff>
+      <xdr:rowOff>118576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>461727</xdr:colOff>
+      <xdr:colOff>401114</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:rowOff>101434</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9253,8 +9253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9960428" y="2452820"/>
-          <a:ext cx="3428085" cy="3166930"/>
+          <a:off x="9951770" y="2482508"/>
+          <a:ext cx="3446639" cy="3255994"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9556,8 +9556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10063653" y="8637487"/>
-          <a:ext cx="908990" cy="174431"/>
+          <a:off x="10016217" y="8619793"/>
+          <a:ext cx="905601" cy="174054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9616,8 +9616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10071487" y="8837566"/>
-          <a:ext cx="901157" cy="192289"/>
+          <a:off x="10024051" y="8819495"/>
+          <a:ext cx="897768" cy="191913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42971</v>
+        <v>42977</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
@@ -45422,24 +45422,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="198"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="183"/>
       <c r="Q1" s="92"/>
       <c r="R1" s="92"/>
       <c r="S1" s="92"/>
@@ -45449,22 +45449,22 @@
       <c r="W1" s="92"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="199"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
       <c r="S2" s="92"/>
@@ -45474,22 +45474,22 @@
       <c r="W2" s="92"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="199"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="201"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="186"/>
       <c r="Q3" s="92"/>
       <c r="R3" s="92"/>
       <c r="S3" s="92"/>
@@ -45499,22 +45499,22 @@
       <c r="W3" s="92"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="202"/>
-      <c r="B4" s="203"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="203"/>
-      <c r="N4" s="203"/>
-      <c r="O4" s="203"/>
-      <c r="P4" s="204"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="92"/>
       <c r="R4" s="92"/>
       <c r="S4" s="92"/>
@@ -45632,365 +45632,365 @@
       <c r="D10" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="171" t="s">
+      <c r="E10" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="171" t="s">
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="173"/>
-      <c r="J10" s="171" t="s">
+      <c r="I10" s="191"/>
+      <c r="J10" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="173"/>
-      <c r="L10" s="171" t="s">
+      <c r="K10" s="191"/>
+      <c r="L10" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="173"/>
-      <c r="N10" s="171" t="s">
+      <c r="M10" s="191"/>
+      <c r="N10" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="172"/>
-      <c r="P10" s="173"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="191"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="184" t="s">
+      <c r="C11" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="194" t="s">
+      <c r="D11" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="179" t="s">
+      <c r="E11" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="176"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="192"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="194"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="182"/>
-      <c r="B12" s="188"/>
-      <c r="C12" s="185"/>
-      <c r="D12" s="195"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="170"/>
       <c r="E12" s="177" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="178"/>
       <c r="G12" s="178"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="176"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="192"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="194"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="182"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="186" t="s">
+      <c r="A13" s="196"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="194" t="s">
+      <c r="D13" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="179" t="s">
+      <c r="E13" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="176"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="194"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="182"/>
-      <c r="B14" s="188"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="195"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="170"/>
       <c r="E14" s="177" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="178"/>
       <c r="G14" s="178"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="176"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="194"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="182"/>
-      <c r="B15" s="188"/>
-      <c r="C15" s="184" t="s">
+      <c r="A15" s="196"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="194" t="s">
+      <c r="D15" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="176"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="192"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="194"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="182"/>
-      <c r="B16" s="188"/>
-      <c r="C16" s="185"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="192" t="s">
+      <c r="A16" s="196"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="174"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="176"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="192"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="194"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="182"/>
-      <c r="B17" s="188"/>
-      <c r="C17" s="184" t="s">
+      <c r="A17" s="196"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="194" t="s">
+      <c r="D17" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="180"/>
-      <c r="G17" s="184"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="173"/>
       <c r="H17" s="100"/>
       <c r="I17" s="101"/>
       <c r="J17" s="100"/>
       <c r="K17" s="101"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="170"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="180"/>
       <c r="N17" s="97"/>
       <c r="O17" s="98"/>
       <c r="P17" s="99"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="182"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="185"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="176"/>
       <c r="H18" s="100"/>
       <c r="I18" s="101"/>
       <c r="J18" s="100"/>
       <c r="K18" s="101"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="170"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="180"/>
       <c r="N18" s="97"/>
       <c r="O18" s="98"/>
       <c r="P18" s="99"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="182"/>
-      <c r="B19" s="187" t="s">
+      <c r="A19" s="196"/>
+      <c r="B19" s="199" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="184" t="s">
+      <c r="C19" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="194" t="s">
+      <c r="D19" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="179" t="s">
+      <c r="E19" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="174"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="176"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="194"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="182"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="195"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="170"/>
       <c r="E20" s="177" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="178"/>
       <c r="G20" s="178"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="176"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="193"/>
+      <c r="P20" s="194"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="182"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="186" t="s">
+      <c r="A21" s="196"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="194" t="s">
+      <c r="D21" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="E21" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="176"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="192"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="194"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="182"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="195"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="170"/>
       <c r="E22" s="177" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="178"/>
       <c r="G22" s="178"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="174"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="176"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="194"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="182"/>
-      <c r="B23" s="188"/>
-      <c r="C23" s="184" t="s">
+      <c r="A23" s="196"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="173" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="194" t="s">
+      <c r="D23" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="179" t="s">
+      <c r="E23" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="180"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="174"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="176"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="194"/>
       <c r="Q23" s="68"/>
       <c r="R23" s="68"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="182"/>
-      <c r="B24" s="188"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="192" t="s">
+      <c r="A24" s="196"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="193"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="174"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="176"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="194"/>
       <c r="Q24" s="67"/>
       <c r="R24" s="68"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="182"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="184" t="s">
+      <c r="A25" s="196"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="194" t="s">
+      <c r="D25" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="179" t="s">
+      <c r="E25" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="184"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="173"/>
       <c r="H25" s="100"/>
       <c r="I25" s="101"/>
       <c r="J25" s="100"/>
       <c r="K25" s="101"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="170"/>
+      <c r="L25" s="179"/>
+      <c r="M25" s="180"/>
       <c r="N25" s="97"/>
       <c r="O25" s="98"/>
       <c r="P25" s="99"/>
@@ -45998,19 +45998,19 @@
       <c r="R25" s="68"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="183"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="185"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="100"/>
       <c r="I26" s="101"/>
       <c r="J26" s="100"/>
       <c r="K26" s="101"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="170"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="180"/>
       <c r="N26" s="97"/>
       <c r="O26" s="98"/>
       <c r="P26" s="99"/>
@@ -46039,17 +46039,70 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
     <mergeCell ref="A1:P4"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
@@ -46066,70 +46119,17 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46154,66 +46154,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="208"/>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208" t="s">
+      <c r="A1" s="216"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="216"/>
+      <c r="AC1" s="216"/>
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="208"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
+      <c r="A2" s="216"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="208" t="s">
+      <c r="I2" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -46230,10 +46230,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
+      <c r="A3" s="216"/>
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -46326,14 +46326,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="208" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -46365,12 +46365,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="209"/>
-      <c r="B5" s="213" t="s">
+      <c r="A5" s="217"/>
+      <c r="B5" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
       <c r="E5" s="16"/>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
@@ -46403,12 +46403,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="209"/>
-      <c r="B6" s="213" t="s">
+      <c r="A6" s="217"/>
+      <c r="B6" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="16"/>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -46441,12 +46441,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="209"/>
-      <c r="B7" s="213" t="s">
+      <c r="A7" s="217"/>
+      <c r="B7" s="208" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
       <c r="E7" s="16"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -46516,66 +46516,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="208"/>
-      <c r="B9" s="208"/>
-      <c r="C9" s="208"/>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208" t="s">
+      <c r="A9" s="216"/>
+      <c r="B9" s="216"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="216"/>
+      <c r="E9" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="208"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="208"/>
-      <c r="Q9" s="208"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208"/>
-      <c r="U9" s="208"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="208"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="208"/>
-      <c r="AB9" s="208"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="208"/>
-      <c r="AE9" s="208"/>
-      <c r="AF9" s="208"/>
-      <c r="AG9" s="208"/>
-      <c r="AH9" s="208"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
+      <c r="L9" s="216"/>
+      <c r="M9" s="216"/>
+      <c r="N9" s="216"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="216"/>
+      <c r="Q9" s="216"/>
+      <c r="R9" s="216"/>
+      <c r="S9" s="216"/>
+      <c r="T9" s="216"/>
+      <c r="U9" s="216"/>
+      <c r="V9" s="216"/>
+      <c r="W9" s="216"/>
+      <c r="X9" s="216"/>
+      <c r="Y9" s="216"/>
+      <c r="Z9" s="216"/>
+      <c r="AA9" s="216"/>
+      <c r="AB9" s="216"/>
+      <c r="AC9" s="216"/>
+      <c r="AD9" s="216"/>
+      <c r="AE9" s="216"/>
+      <c r="AF9" s="216"/>
+      <c r="AG9" s="216"/>
+      <c r="AH9" s="216"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="208"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
+      <c r="A10" s="216"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="208" t="s">
+      <c r="I10" s="216" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="208"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="208"/>
-      <c r="N10" s="208"/>
-      <c r="O10" s="208"/>
-      <c r="P10" s="208"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="208"/>
-      <c r="S10" s="208"/>
-      <c r="T10" s="208"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="216"/>
+      <c r="M10" s="216"/>
+      <c r="N10" s="216"/>
+      <c r="O10" s="216"/>
+      <c r="P10" s="216"/>
+      <c r="Q10" s="216"/>
+      <c r="R10" s="216"/>
+      <c r="S10" s="216"/>
+      <c r="T10" s="216"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -46592,10 +46592,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="208"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="208"/>
-      <c r="D11" s="208"/>
+      <c r="A11" s="216"/>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="216"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -46692,10 +46692,10 @@
       <c r="B12" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="217"/>
+      <c r="D12" s="215"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -46728,9 +46728,9 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="211"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="205" t="s">
+      <c r="A13" s="206"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="211" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -46768,9 +46768,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="211"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
+      <c r="A14" s="206"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
       <c r="D14" s="23" t="s">
         <v>64</v>
       </c>
@@ -46806,9 +46806,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="211"/>
-      <c r="B15" s="206"/>
-      <c r="C15" s="206"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
       <c r="D15" s="23" t="s">
         <v>65</v>
       </c>
@@ -46844,9 +46844,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="211"/>
-      <c r="B16" s="206"/>
-      <c r="C16" s="206"/>
+      <c r="A16" s="206"/>
+      <c r="B16" s="213"/>
+      <c r="C16" s="213"/>
       <c r="D16" s="23" t="s">
         <v>66</v>
       </c>
@@ -46882,9 +46882,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="211"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="206"/>
+      <c r="A17" s="206"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
       <c r="D17" s="23" t="s">
         <v>143</v>
       </c>
@@ -46920,9 +46920,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="211"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="102"/>
-      <c r="C18" s="207"/>
+      <c r="C18" s="212"/>
       <c r="D18" s="103" t="s">
         <v>117</v>
       </c>
@@ -46958,11 +46958,11 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="211"/>
-      <c r="B19" s="211" t="s">
+      <c r="A19" s="206"/>
+      <c r="B19" s="206" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="205" t="s">
+      <c r="C19" s="211" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="89" t="s">
@@ -47000,9 +47000,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="211"/>
-      <c r="B20" s="211"/>
-      <c r="C20" s="207"/>
+      <c r="A20" s="206"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="212"/>
       <c r="D20" s="89" t="s">
         <v>111</v>
       </c>
@@ -47049,14 +47049,14 @@
       <c r="AS20" s="29"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="211"/>
-      <c r="B21" s="210" t="s">
+      <c r="A21" s="206"/>
+      <c r="B21" s="205" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="214" t="s">
+      <c r="C21" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="215"/>
+      <c r="D21" s="210"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -47100,12 +47100,12 @@
       <c r="AS21" s="29"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="211"/>
-      <c r="B22" s="210"/>
-      <c r="C22" s="214" t="s">
+      <c r="A22" s="206"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="215"/>
+      <c r="D22" s="210"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -47149,11 +47149,11 @@
       <c r="AS22" s="29"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="211"/>
-      <c r="B23" s="210" t="s">
+      <c r="A23" s="206"/>
+      <c r="B23" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="210" t="s">
+      <c r="C23" s="205" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="87" t="s">
@@ -47202,9 +47202,9 @@
       <c r="AS23" s="29"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="211"/>
-      <c r="B24" s="210"/>
-      <c r="C24" s="210"/>
+      <c r="A24" s="206"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
       <c r="D24" s="87" t="s">
         <v>18</v>
       </c>
@@ -47251,9 +47251,9 @@
       <c r="AS24" s="29"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="211"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="210"/>
+      <c r="A25" s="206"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
       <c r="D25" s="87" t="s">
         <v>19</v>
       </c>
@@ -47300,9 +47300,9 @@
       <c r="AS25" s="29"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="211"/>
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
+      <c r="A26" s="206"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="205"/>
       <c r="D26" s="87" t="s">
         <v>20</v>
       </c>
@@ -47349,9 +47349,9 @@
       <c r="AS26" s="29"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="211"/>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210" t="s">
+      <c r="A27" s="206"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="87" t="s">
@@ -47400,9 +47400,9 @@
       <c r="AS27" s="29"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="211"/>
-      <c r="B28" s="210"/>
-      <c r="C28" s="210"/>
+      <c r="A28" s="206"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="205"/>
       <c r="D28" s="87" t="s">
         <v>18</v>
       </c>
@@ -47449,9 +47449,9 @@
       <c r="AS28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="211"/>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
+      <c r="A29" s="206"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
       <c r="D29" s="87" t="s">
         <v>19</v>
       </c>
@@ -47498,9 +47498,9 @@
       <c r="AS29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="211"/>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210" t="s">
+      <c r="A30" s="206"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="205" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="87" t="s">
@@ -47549,9 +47549,9 @@
       <c r="AS30" s="29"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="212"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="210"/>
+      <c r="A31" s="207"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="205"/>
       <c r="D31" s="87" t="s">
         <v>18</v>
       </c>
@@ -47615,6 +47615,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="A13:A31"/>
@@ -47631,14 +47639,6 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47658,133 +47658,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="220"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="224"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="221"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="223"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="227"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="222"/>
-      <c r="N3" s="222"/>
-      <c r="O3" s="223"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="227"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="224"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="226"/>
+      <c r="A4" s="228"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="230"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
-      <c r="D5" s="227"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="227"/>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="227"/>
-      <c r="M5" s="227"/>
-      <c r="N5" s="227"/>
-      <c r="O5" s="228"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
+      <c r="E5" s="218"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="219"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="94">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="227"/>
-      <c r="M6" s="227"/>
-      <c r="N6" s="227"/>
-      <c r="O6" s="228"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
+      <c r="O6" s="219"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="94">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="227"/>
-      <c r="M7" s="227"/>
-      <c r="N7" s="227"/>
-      <c r="O7" s="228"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="219"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -47801,20 +47801,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="228"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="219"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -47831,20 +47831,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="227"/>
-      <c r="M9" s="227"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="228"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="219"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
@@ -47861,20 +47861,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="227"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="227"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="227"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="227"/>
-      <c r="M10" s="227"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="228"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="219"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -47891,20 +47891,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="227"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="228"/>
+      <c r="B11" s="218"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="219"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
@@ -47921,20 +47921,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="227"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="228"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="218"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="219"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -47951,20 +47951,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="227"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="227"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="227"/>
-      <c r="N13" s="227"/>
-      <c r="O13" s="228"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="219"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -47981,20 +47981,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="227"/>
-      <c r="C14" s="227"/>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="227"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="228"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="219"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -48011,20 +48011,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="227"/>
-      <c r="E15" s="227"/>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="227"/>
-      <c r="O15" s="228"/>
+      <c r="B15" s="218"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="218"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="219"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -48041,20 +48041,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="C16" s="227"/>
-      <c r="D16" s="227"/>
-      <c r="E16" s="227"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="228"/>
+      <c r="B16" s="218"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="219"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -48071,20 +48071,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="227"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="228"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="219"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
@@ -48101,20 +48101,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="227"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="227"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="227"/>
-      <c r="O18" s="228"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="219"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -48131,20 +48131,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="227"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="227"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="228"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="219"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
@@ -48161,20 +48161,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="227"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="227"/>
-      <c r="N20" s="227"/>
-      <c r="O20" s="228"/>
+      <c r="B20" s="218"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="219"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -48191,20 +48191,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="227"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="227"/>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="227"/>
-      <c r="M21" s="227"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="228"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="218"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="219"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
@@ -48221,20 +48221,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="227"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="227"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="227"/>
-      <c r="O22" s="228"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="219"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -48251,20 +48251,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="227"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="227"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="228"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="219"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -48281,20 +48281,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="227"/>
-      <c r="C24" s="227"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="227"/>
-      <c r="F24" s="227"/>
-      <c r="G24" s="227"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="227"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="227"/>
-      <c r="N24" s="227"/>
-      <c r="O24" s="228"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="219"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -48311,20 +48311,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="227"/>
-      <c r="H25" s="227"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="227"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="227"/>
-      <c r="M25" s="227"/>
-      <c r="N25" s="227"/>
-      <c r="O25" s="228"/>
+      <c r="B25" s="218"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="218"/>
+      <c r="H25" s="218"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="219"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -48341,20 +48341,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
-      <c r="F26" s="227"/>
-      <c r="G26" s="227"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
-      <c r="J26" s="227"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="227"/>
-      <c r="M26" s="227"/>
-      <c r="N26" s="227"/>
-      <c r="O26" s="228"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="219"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
@@ -48371,20 +48371,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="227"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="227"/>
-      <c r="M27" s="227"/>
-      <c r="N27" s="227"/>
-      <c r="O27" s="228"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="219"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -48401,20 +48401,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="227"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="227"/>
-      <c r="J28" s="227"/>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="228"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="219"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -48431,20 +48431,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="227"/>
-      <c r="J29" s="227"/>
-      <c r="K29" s="227"/>
-      <c r="L29" s="227"/>
-      <c r="M29" s="227"/>
-      <c r="N29" s="227"/>
-      <c r="O29" s="228"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="219"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -48461,20 +48461,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="227"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="227"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="227"/>
-      <c r="N30" s="227"/>
-      <c r="O30" s="228"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="219"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -48491,20 +48491,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="227"/>
-      <c r="K31" s="227"/>
-      <c r="L31" s="227"/>
-      <c r="M31" s="227"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="228"/>
+      <c r="B31" s="218"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="219"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -48521,20 +48521,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="227"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
-      <c r="F32" s="227"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="228"/>
+      <c r="B32" s="218"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="218"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="219"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
@@ -48551,20 +48551,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="227"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="227"/>
-      <c r="K33" s="227"/>
-      <c r="L33" s="227"/>
-      <c r="M33" s="227"/>
-      <c r="N33" s="227"/>
-      <c r="O33" s="228"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="218"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="219"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -48581,20 +48581,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="227"/>
-      <c r="C34" s="227"/>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="227"/>
-      <c r="H34" s="227"/>
-      <c r="I34" s="227"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="227"/>
-      <c r="L34" s="227"/>
-      <c r="M34" s="227"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="228"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="218"/>
+      <c r="L34" s="218"/>
+      <c r="M34" s="218"/>
+      <c r="N34" s="218"/>
+      <c r="O34" s="219"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
@@ -48611,20 +48611,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="227"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="227"/>
-      <c r="E35" s="227"/>
-      <c r="F35" s="227"/>
-      <c r="G35" s="227"/>
-      <c r="H35" s="227"/>
-      <c r="I35" s="227"/>
-      <c r="J35" s="227"/>
-      <c r="K35" s="227"/>
-      <c r="L35" s="227"/>
-      <c r="M35" s="227"/>
-      <c r="N35" s="227"/>
-      <c r="O35" s="228"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="218"/>
+      <c r="L35" s="218"/>
+      <c r="M35" s="218"/>
+      <c r="N35" s="218"/>
+      <c r="O35" s="219"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
@@ -48641,20 +48641,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="227"/>
-      <c r="I36" s="227"/>
-      <c r="J36" s="227"/>
-      <c r="K36" s="227"/>
-      <c r="L36" s="227"/>
-      <c r="M36" s="227"/>
-      <c r="N36" s="227"/>
-      <c r="O36" s="228"/>
+      <c r="B36" s="218"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="218"/>
+      <c r="K36" s="218"/>
+      <c r="L36" s="218"/>
+      <c r="M36" s="218"/>
+      <c r="N36" s="218"/>
+      <c r="O36" s="219"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -48671,20 +48671,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
-      <c r="E37" s="227"/>
-      <c r="F37" s="227"/>
-      <c r="G37" s="227"/>
-      <c r="H37" s="227"/>
-      <c r="I37" s="227"/>
-      <c r="J37" s="227"/>
-      <c r="K37" s="227"/>
-      <c r="L37" s="227"/>
-      <c r="M37" s="227"/>
-      <c r="N37" s="227"/>
-      <c r="O37" s="228"/>
+      <c r="B37" s="218"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="218"/>
+      <c r="G37" s="218"/>
+      <c r="H37" s="218"/>
+      <c r="I37" s="218"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="218"/>
+      <c r="L37" s="218"/>
+      <c r="M37" s="218"/>
+      <c r="N37" s="218"/>
+      <c r="O37" s="219"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -48701,20 +48701,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
-      <c r="E38" s="227"/>
-      <c r="F38" s="227"/>
-      <c r="G38" s="227"/>
-      <c r="H38" s="227"/>
-      <c r="I38" s="227"/>
-      <c r="J38" s="227"/>
-      <c r="K38" s="227"/>
-      <c r="L38" s="227"/>
-      <c r="M38" s="227"/>
-      <c r="N38" s="227"/>
-      <c r="O38" s="228"/>
+      <c r="B38" s="218"/>
+      <c r="C38" s="218"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="218"/>
+      <c r="K38" s="218"/>
+      <c r="L38" s="218"/>
+      <c r="M38" s="218"/>
+      <c r="N38" s="218"/>
+      <c r="O38" s="219"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -48731,20 +48731,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
-      <c r="E39" s="227"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
-      <c r="I39" s="227"/>
-      <c r="J39" s="227"/>
-      <c r="K39" s="227"/>
-      <c r="L39" s="227"/>
-      <c r="M39" s="227"/>
-      <c r="N39" s="227"/>
-      <c r="O39" s="228"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="218"/>
+      <c r="L39" s="218"/>
+      <c r="M39" s="218"/>
+      <c r="N39" s="218"/>
+      <c r="O39" s="219"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -48761,20 +48761,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="227"/>
-      <c r="L40" s="227"/>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="228"/>
+      <c r="B40" s="218"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="218"/>
+      <c r="N40" s="218"/>
+      <c r="O40" s="219"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
@@ -48791,20 +48791,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
-      <c r="H41" s="227"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="227"/>
-      <c r="K41" s="227"/>
-      <c r="L41" s="227"/>
-      <c r="M41" s="227"/>
-      <c r="N41" s="227"/>
-      <c r="O41" s="228"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
+      <c r="E41" s="218"/>
+      <c r="F41" s="218"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="218"/>
+      <c r="K41" s="218"/>
+      <c r="L41" s="218"/>
+      <c r="M41" s="218"/>
+      <c r="N41" s="218"/>
+      <c r="O41" s="219"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
@@ -48821,20 +48821,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="229"/>
-      <c r="F42" s="229"/>
-      <c r="G42" s="229"/>
-      <c r="H42" s="229"/>
-      <c r="I42" s="229"/>
-      <c r="J42" s="229"/>
-      <c r="K42" s="229"/>
-      <c r="L42" s="229"/>
-      <c r="M42" s="229"/>
-      <c r="N42" s="229"/>
-      <c r="O42" s="230"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
+      <c r="K42" s="220"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
+      <c r="O42" s="221"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
@@ -48884,6 +48884,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -48893,36 +48923,6 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48933,8 +48933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD173"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U93" sqref="U93"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -49759,7 +49759,7 @@
     </row>
     <row r="81" spans="6:30">
       <c r="F81" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AC81" s="112"/>
       <c r="AD81" s="35"/>
@@ -49866,7 +49866,7 @@
     </row>
     <row r="107" spans="20:30">
       <c r="T107" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AC107" s="112"/>
       <c r="AD107" s="35"/>
@@ -50333,7 +50333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A181" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
